--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111534811</v>
+        <v>111529645</v>
       </c>
       <c r="B38" t="n">
-        <v>88956</v>
+        <v>88950</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,25 +4941,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5747</v>
+        <v>256756</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4968,17 +4968,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485420.7608456227</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R38" t="n">
-        <v>6995891.373405961</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111534365</v>
+        <v>111534811</v>
       </c>
       <c r="B39" t="n">
-        <v>90658</v>
+        <v>88956</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5057,25 +5057,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R39" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111529645</v>
+        <v>111528406</v>
       </c>
       <c r="B40" t="n">
-        <v>88950</v>
+        <v>86223</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5177,37 +5177,35 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>256756</v>
+        <v>4412</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485461.9636501204</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R40" t="n">
-        <v>6995874.881727031</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5258,7 +5256,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5270,17 +5267,17 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111528406</v>
+        <v>111534807</v>
       </c>
       <c r="B41" t="n">
-        <v>86223</v>
+        <v>88946</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5289,42 +5286,44 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4412</v>
+        <v>256335</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R41" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5372,6 +5371,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5383,17 +5383,17 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111534807</v>
+        <v>111534365</v>
       </c>
       <c r="B42" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485420.7608456227</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R42" t="n">
-        <v>6995891.373405961</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111645934</v>
+        <v>111646238</v>
       </c>
       <c r="B43" t="n">
-        <v>88915</v>
+        <v>90684</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5522,21 +5522,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5734</v>
+        <v>4368</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485252.940604815</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R43" t="n">
-        <v>6995793.384020397</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646238</v>
+        <v>111645939</v>
       </c>
       <c r="B44" t="n">
-        <v>90684</v>
+        <v>88956</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4368</v>
+        <v>5747</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485362.3490331852</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R44" t="n">
-        <v>6995913.831639683</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111646147</v>
+        <v>111646012</v>
       </c>
       <c r="B45" t="n">
-        <v>88955</v>
+        <v>88956</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5748,38 +5748,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>233196</v>
+        <v>5747</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485366.2412225683</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R45" t="n">
-        <v>6995871.688347753</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111645786</v>
+        <v>111647922</v>
       </c>
       <c r="B46" t="n">
-        <v>88956</v>
+        <v>88950</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5857,25 +5857,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5747</v>
+        <v>256756</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485330.9609580904</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R46" t="n">
-        <v>6995793.48329893</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5958,10 +5958,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111646249</v>
+        <v>111646116</v>
       </c>
       <c r="B47" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5974,35 +5974,35 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485406.7222456348</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R47" t="n">
-        <v>6995896.419135591</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6071,7 +6071,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111645939</v>
+        <v>111645907</v>
       </c>
       <c r="B48" t="n">
         <v>88956</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485250.2046207946</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R48" t="n">
-        <v>6995790.225604231</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111647994</v>
+        <v>111646147</v>
       </c>
       <c r="B49" t="n">
-        <v>82949</v>
+        <v>88955</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6196,42 +6196,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5589</v>
+        <v>233196</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485369.3672842737</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R49" t="n">
-        <v>6995860.803003247</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S49" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6285,22 +6285,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646280</v>
+        <v>111646249</v>
       </c>
       <c r="B50" t="n">
-        <v>90669</v>
+        <v>88946</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,21 +6313,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6003297</v>
+        <v>256335</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485392.7844495863</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R50" t="n">
-        <v>6995823.100814831</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111529093</v>
+        <v>111646113</v>
       </c>
       <c r="B51" t="n">
-        <v>82949</v>
+        <v>87995</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6422,39 +6422,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5589</v>
+        <v>1594</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485442.3376153786</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R51" t="n">
-        <v>6995847.791586295</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6481,22 +6481,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6511,22 +6511,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111645892</v>
+        <v>111647994</v>
       </c>
       <c r="B52" t="n">
-        <v>88915</v>
+        <v>82949</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,21 +6539,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5734</v>
+        <v>5589</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485253.8704414698</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R52" t="n">
-        <v>6995798.362557702</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111646012</v>
+        <v>111529093</v>
       </c>
       <c r="B53" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6648,39 +6648,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485239.8069642049</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R53" t="n">
-        <v>6995797.973531034</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6707,22 +6707,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6737,22 +6737,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646113</v>
+        <v>111646292</v>
       </c>
       <c r="B54" t="n">
-        <v>87995</v>
+        <v>88946</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6765,35 +6765,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1594</v>
+        <v>256335</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485314.111892351</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R54" t="n">
-        <v>6995879.171382442</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6850,12 +6850,12 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111647922</v>
+        <v>111646280</v>
       </c>
       <c r="B56" t="n">
-        <v>88950</v>
+        <v>90669</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,42 +6987,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>256756</v>
+        <v>6003297</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485369.3672842737</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R56" t="n">
-        <v>6995860.803003247</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7088,10 +7088,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645907</v>
+        <v>111645934</v>
       </c>
       <c r="B57" t="n">
-        <v>88956</v>
+        <v>88915</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7100,25 +7100,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7129,10 +7129,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485252.9550174927</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R57" t="n">
-        <v>6995796.554805406</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111646241</v>
+        <v>111645892</v>
       </c>
       <c r="B58" t="n">
-        <v>90658</v>
+        <v>88915</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7217,21 +7217,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4361</v>
+        <v>5734</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485362.3490331852</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R58" t="n">
-        <v>6995913.831639683</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646116</v>
+        <v>111646241</v>
       </c>
       <c r="B59" t="n">
-        <v>88956</v>
+        <v>90658</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7326,25 +7326,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5747</v>
+        <v>4361</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485315.0190579021</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R59" t="n">
-        <v>6995879.167276053</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7427,10 +7427,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646292</v>
+        <v>111645786</v>
       </c>
       <c r="B60" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7443,35 +7443,35 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485380.6216548251</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R60" t="n">
-        <v>6995741.1661748</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7528,19 +7528,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646029</v>
+        <v>111646080</v>
       </c>
       <c r="B61" t="n">
         <v>88899</v>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485240.8007001225</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R61" t="n">
-        <v>6995816.994040847</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646080</v>
+        <v>111646177</v>
       </c>
       <c r="B62" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485281.704077267</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R62" t="n">
-        <v>6995834.474218315</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,10 +7766,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646177</v>
+        <v>111646029</v>
       </c>
       <c r="B63" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7778,25 +7778,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485334.5865922851</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R63" t="n">
-        <v>6995893.120704162</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111529645</v>
+        <v>111534811</v>
       </c>
       <c r="B38" t="n">
-        <v>88950</v>
+        <v>88956</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,25 +4941,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>256756</v>
+        <v>5747</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4968,17 +4968,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485461.9636501204</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R38" t="n">
-        <v>6995874.881727031</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111534811</v>
+        <v>111528406</v>
       </c>
       <c r="B39" t="n">
-        <v>88956</v>
+        <v>86223</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5057,44 +5057,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485420.7608456227</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R39" t="n">
-        <v>6995891.373405961</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5142,7 +5140,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5154,17 +5151,17 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111528406</v>
+        <v>111529645</v>
       </c>
       <c r="B40" t="n">
-        <v>86223</v>
+        <v>88950</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5177,35 +5174,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4412</v>
+        <v>256756</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485437.7021191928</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R40" t="n">
-        <v>6995825.616733935</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5256,6 +5255,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5267,17 +5267,17 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534807</v>
+        <v>111534365</v>
       </c>
       <c r="B41" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5286,25 +5286,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485420.7608456227</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R41" t="n">
-        <v>6995891.373405961</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111534365</v>
+        <v>111534807</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>88946</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>256335</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R42" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111646238</v>
+        <v>111645892</v>
       </c>
       <c r="B43" t="n">
-        <v>90684</v>
+        <v>88915</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5522,21 +5522,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4368</v>
+        <v>5734</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485362.3490331852</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R43" t="n">
-        <v>6995913.831639683</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111645939</v>
+        <v>111646292</v>
       </c>
       <c r="B44" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5635,35 +5635,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485250.2046207946</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R44" t="n">
-        <v>6995790.225604231</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5720,22 +5720,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111646012</v>
+        <v>111646241</v>
       </c>
       <c r="B45" t="n">
-        <v>88956</v>
+        <v>90658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5747</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5773,10 +5773,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485239.8069642049</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R45" t="n">
-        <v>6995797.973531034</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5845,10 +5845,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111647922</v>
+        <v>111646147</v>
       </c>
       <c r="B46" t="n">
-        <v>88950</v>
+        <v>88955</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5857,42 +5857,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>256756</v>
+        <v>233196</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485369.3672842737</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R46" t="n">
-        <v>6995860.803003247</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S46" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5946,22 +5946,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111646116</v>
+        <v>111646238</v>
       </c>
       <c r="B47" t="n">
-        <v>88956</v>
+        <v>90684</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,25 +5970,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5747</v>
+        <v>4368</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485315.0190579021</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R47" t="n">
-        <v>6995879.167276053</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6071,10 +6071,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111645907</v>
+        <v>111647994</v>
       </c>
       <c r="B48" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6083,25 +6083,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485252.9550174927</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R48" t="n">
-        <v>6995796.554805406</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646147</v>
+        <v>111645939</v>
       </c>
       <c r="B49" t="n">
-        <v>88955</v>
+        <v>88956</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6200,38 +6200,38 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>233196</v>
+        <v>5747</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485366.2412225683</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R49" t="n">
-        <v>6995871.688347753</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6285,22 +6285,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646249</v>
+        <v>111646113</v>
       </c>
       <c r="B50" t="n">
-        <v>88946</v>
+        <v>87995</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,35 +6313,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>256335</v>
+        <v>1594</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485406.7222456348</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R50" t="n">
-        <v>6995896.419135591</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646113</v>
+        <v>111646249</v>
       </c>
       <c r="B51" t="n">
-        <v>87995</v>
+        <v>88946</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,35 +6426,35 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1594</v>
+        <v>256335</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485314.111892351</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R51" t="n">
-        <v>6995879.171382442</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,7 +6523,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111647994</v>
+        <v>111529093</v>
       </c>
       <c r="B52" t="n">
         <v>82949</v>
@@ -6560,17 +6560,17 @@
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485369.3672842737</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R52" t="n">
-        <v>6995860.803003247</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6594,22 +6594,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6624,22 +6624,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111529093</v>
+        <v>111645907</v>
       </c>
       <c r="B53" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6648,39 +6648,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485442.3376153786</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R53" t="n">
-        <v>6995847.791586295</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6707,22 +6707,22 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6737,19 +6737,19 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646292</v>
+        <v>111646132</v>
       </c>
       <c r="B54" t="n">
         <v>88946</v>
@@ -6786,14 +6786,14 @@
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485380.6216548251</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R54" t="n">
-        <v>6995741.1661748</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6850,22 +6850,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646132</v>
+        <v>111646012</v>
       </c>
       <c r="B55" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,35 +6878,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485283.2292241262</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R55" t="n">
-        <v>6995870.704946019</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111645892</v>
+        <v>111645786</v>
       </c>
       <c r="B58" t="n">
-        <v>88915</v>
+        <v>88956</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7213,25 +7213,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5734</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485253.8704414698</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R58" t="n">
-        <v>6995798.362557702</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646241</v>
+        <v>111647922</v>
       </c>
       <c r="B59" t="n">
-        <v>90658</v>
+        <v>88950</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7330,21 +7330,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4361</v>
+        <v>256756</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7355,13 +7355,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485362.3490331852</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R59" t="n">
-        <v>6995913.831639683</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7427,7 +7427,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111645786</v>
+        <v>111646116</v>
       </c>
       <c r="B60" t="n">
         <v>88956</v>
@@ -7468,10 +7468,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485330.9609580904</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R60" t="n">
-        <v>6995793.48329893</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111534811</v>
+        <v>111528406</v>
       </c>
       <c r="B38" t="n">
-        <v>88956</v>
+        <v>86223</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,44 +4941,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485420.7608456227</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R38" t="n">
-        <v>6995891.373405961</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5026,7 +5024,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5038,17 +5035,17 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111528406</v>
+        <v>111534807</v>
       </c>
       <c r="B39" t="n">
-        <v>86223</v>
+        <v>88946</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5057,42 +5054,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4412</v>
+        <v>256335</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R39" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5140,6 +5139,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5151,17 +5151,17 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111529645</v>
+        <v>111534365</v>
       </c>
       <c r="B40" t="n">
-        <v>88950</v>
+        <v>90658</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5174,21 +5174,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>256756</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5197,17 +5197,17 @@
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485461.9636501204</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R40" t="n">
-        <v>6995874.881727031</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534365</v>
+        <v>111534811</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>88956</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5286,25 +5286,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>5747</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R41" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111534807</v>
+        <v>111529645</v>
       </c>
       <c r="B42" t="n">
-        <v>88946</v>
+        <v>88950</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>256335</v>
+        <v>256756</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485420.7608456227</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R42" t="n">
-        <v>6995891.373405961</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111645892</v>
+        <v>111645786</v>
       </c>
       <c r="B43" t="n">
-        <v>88915</v>
+        <v>88956</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5734</v>
+        <v>5747</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485253.8704414698</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R43" t="n">
-        <v>6995798.362557702</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646292</v>
+        <v>111647922</v>
       </c>
       <c r="B44" t="n">
-        <v>88946</v>
+        <v>88950</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5631,42 +5631,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>256335</v>
+        <v>256756</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485380.6216548251</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R44" t="n">
-        <v>6995741.1661748</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5720,22 +5720,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111646241</v>
+        <v>111529093</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>82949</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5748,35 +5748,35 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>5589</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485362.3490331852</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R45" t="n">
-        <v>6995913.831639683</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111646147</v>
+        <v>111646280</v>
       </c>
       <c r="B46" t="n">
-        <v>88955</v>
+        <v>90669</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,38 +5861,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>233196</v>
+        <v>6003297</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485366.2412225683</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R46" t="n">
-        <v>6995871.688347753</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5946,22 +5946,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111646238</v>
+        <v>111646116</v>
       </c>
       <c r="B47" t="n">
-        <v>90684</v>
+        <v>88956</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,25 +5970,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4368</v>
+        <v>5747</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485362.3490331852</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R47" t="n">
-        <v>6995913.831639683</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6071,10 +6071,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111647994</v>
+        <v>111645907</v>
       </c>
       <c r="B48" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6083,25 +6083,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485369.3672842737</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R48" t="n">
-        <v>6995860.803003247</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S48" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111645939</v>
+        <v>111646249</v>
       </c>
       <c r="B49" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6200,35 +6200,35 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485250.2046207946</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R49" t="n">
-        <v>6995790.225604231</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6410,7 +6410,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646249</v>
+        <v>111646132</v>
       </c>
       <c r="B51" t="n">
         <v>88946</v>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485406.7222456348</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R51" t="n">
-        <v>6995896.419135591</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,10 +6523,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111529093</v>
+        <v>111645939</v>
       </c>
       <c r="B52" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6535,39 +6535,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485442.3376153786</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R52" t="n">
-        <v>6995847.791586295</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6594,22 +6594,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6624,19 +6624,19 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111645907</v>
+        <v>111646012</v>
       </c>
       <c r="B53" t="n">
         <v>88956</v>
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485252.9550174927</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R53" t="n">
-        <v>6995796.554805406</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646132</v>
+        <v>111646241</v>
       </c>
       <c r="B54" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6761,39 +6761,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485283.2292241262</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R54" t="n">
-        <v>6995870.704946019</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646012</v>
+        <v>111646238</v>
       </c>
       <c r="B55" t="n">
-        <v>88956</v>
+        <v>90684</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5747</v>
+        <v>4368</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485239.8069642049</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R55" t="n">
-        <v>6995797.973531034</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6975,10 +6975,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111646280</v>
+        <v>111646147</v>
       </c>
       <c r="B56" t="n">
-        <v>90669</v>
+        <v>88955</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6991,38 +6991,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6003297</v>
+        <v>233196</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485392.7844495863</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R56" t="n">
-        <v>6995823.100814831</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7076,19 +7076,19 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645934</v>
+        <v>111645892</v>
       </c>
       <c r="B57" t="n">
         <v>88915</v>
@@ -7129,10 +7129,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485252.940604815</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R57" t="n">
-        <v>6995793.384020397</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111645786</v>
+        <v>111647994</v>
       </c>
       <c r="B58" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7213,25 +7213,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485330.9609580904</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R58" t="n">
-        <v>6995793.48329893</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111647922</v>
+        <v>111646292</v>
       </c>
       <c r="B59" t="n">
-        <v>88950</v>
+        <v>88946</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7326,42 +7326,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>256756</v>
+        <v>256335</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485369.3672842737</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R59" t="n">
-        <v>6995860.803003247</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S59" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,22 +7415,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646116</v>
+        <v>111645934</v>
       </c>
       <c r="B60" t="n">
-        <v>88956</v>
+        <v>88915</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7439,25 +7439,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7468,10 +7468,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485315.0190579021</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R60" t="n">
-        <v>6995879.167276053</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646177</v>
+        <v>111646029</v>
       </c>
       <c r="B62" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485334.5865922851</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R62" t="n">
-        <v>6995893.120704162</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,10 +7766,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646029</v>
+        <v>111646177</v>
       </c>
       <c r="B63" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7778,25 +7778,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485240.8007001225</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R63" t="n">
-        <v>6995816.994040847</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -5042,10 +5042,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111534807</v>
+        <v>111529645</v>
       </c>
       <c r="B39" t="n">
-        <v>88946</v>
+        <v>88950</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5054,25 +5054,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>256335</v>
+        <v>256756</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5081,17 +5081,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485420.7608456227</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R39" t="n">
-        <v>6995891.373405961</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534811</v>
+        <v>111534807</v>
       </c>
       <c r="B41" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5290,21 +5290,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111529645</v>
+        <v>111534811</v>
       </c>
       <c r="B42" t="n">
-        <v>88950</v>
+        <v>88956</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>256756</v>
+        <v>5747</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485461.9636501204</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R42" t="n">
-        <v>6995874.881727031</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111645786</v>
+        <v>111645892</v>
       </c>
       <c r="B43" t="n">
-        <v>88956</v>
+        <v>88915</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485330.9609580904</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R43" t="n">
-        <v>6995793.48329893</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111647922</v>
+        <v>111646249</v>
       </c>
       <c r="B44" t="n">
-        <v>88950</v>
+        <v>88946</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5631,42 +5631,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>256756</v>
+        <v>256335</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485369.3672842737</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R44" t="n">
-        <v>6995860.803003247</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S44" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111529093</v>
+        <v>111646113</v>
       </c>
       <c r="B45" t="n">
-        <v>82949</v>
+        <v>87995</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,39 +5744,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5589</v>
+        <v>1594</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485442.3376153786</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R45" t="n">
-        <v>6995847.791586295</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111646280</v>
+        <v>111645939</v>
       </c>
       <c r="B46" t="n">
-        <v>90669</v>
+        <v>88956</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,35 +5861,35 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6003297</v>
+        <v>5747</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485392.7844495863</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R46" t="n">
-        <v>6995823.100814831</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5958,10 +5958,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111646116</v>
+        <v>111529093</v>
       </c>
       <c r="B47" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,39 +5970,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485315.0190579021</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R47" t="n">
-        <v>6995879.167276053</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,19 +6059,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111645907</v>
+        <v>111646116</v>
       </c>
       <c r="B48" t="n">
         <v>88956</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485252.9550174927</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R48" t="n">
-        <v>6995796.554805406</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646249</v>
+        <v>111646238</v>
       </c>
       <c r="B49" t="n">
-        <v>88946</v>
+        <v>90684</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6196,39 +6196,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>256335</v>
+        <v>4368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485406.7222456348</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R49" t="n">
-        <v>6995896.419135591</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646113</v>
+        <v>111646241</v>
       </c>
       <c r="B50" t="n">
-        <v>87995</v>
+        <v>90658</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6309,25 +6309,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1594</v>
+        <v>4361</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485314.111892351</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R50" t="n">
-        <v>6995879.171382442</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646132</v>
+        <v>111646280</v>
       </c>
       <c r="B51" t="n">
-        <v>88946</v>
+        <v>90669</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,21 +6426,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>256335</v>
+        <v>6003297</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485283.2292241262</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R51" t="n">
-        <v>6995870.704946019</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,10 +6523,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111645939</v>
+        <v>111646132</v>
       </c>
       <c r="B52" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,35 +6539,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485250.2046207946</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R52" t="n">
-        <v>6995790.225604231</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111646012</v>
+        <v>111647994</v>
       </c>
       <c r="B53" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6677,13 +6677,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485239.8069642049</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R53" t="n">
-        <v>6995797.973531034</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646241</v>
+        <v>111646012</v>
       </c>
       <c r="B54" t="n">
-        <v>90658</v>
+        <v>88956</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6761,25 +6761,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4361</v>
+        <v>5747</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485362.3490331852</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R54" t="n">
-        <v>6995913.831639683</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646238</v>
+        <v>111645786</v>
       </c>
       <c r="B55" t="n">
-        <v>90684</v>
+        <v>88956</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4368</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485362.3490331852</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R55" t="n">
-        <v>6995913.831639683</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6975,10 +6975,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111646147</v>
+        <v>111646292</v>
       </c>
       <c r="B56" t="n">
-        <v>88955</v>
+        <v>88946</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6991,38 +6991,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>233196</v>
+        <v>256335</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485366.2412225683</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R56" t="n">
-        <v>6995871.688347753</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7076,19 +7076,19 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645892</v>
+        <v>111645934</v>
       </c>
       <c r="B57" t="n">
         <v>88915</v>
@@ -7129,10 +7129,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485253.8704414698</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R57" t="n">
-        <v>6995798.362557702</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111647994</v>
+        <v>111645907</v>
       </c>
       <c r="B58" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7213,25 +7213,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485369.3672842737</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R58" t="n">
-        <v>6995860.803003247</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S58" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646292</v>
+        <v>111646147</v>
       </c>
       <c r="B59" t="n">
-        <v>88946</v>
+        <v>88955</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7330,38 +7330,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>256335</v>
+        <v>233196</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485380.6216548251</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R59" t="n">
-        <v>6995741.1661748</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,22 +7415,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111645934</v>
+        <v>111647922</v>
       </c>
       <c r="B60" t="n">
-        <v>88915</v>
+        <v>88950</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7443,21 +7443,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5734</v>
+        <v>256756</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7468,13 +7468,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485252.940604815</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R60" t="n">
-        <v>6995793.384020397</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7540,7 +7540,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646080</v>
+        <v>111646029</v>
       </c>
       <c r="B61" t="n">
         <v>88899</v>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485281.704077267</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R61" t="n">
-        <v>6995834.474218315</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646029</v>
+        <v>111646177</v>
       </c>
       <c r="B62" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485240.8007001225</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R62" t="n">
-        <v>6995816.994040847</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,10 +7766,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646177</v>
+        <v>111646080</v>
       </c>
       <c r="B63" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7778,25 +7778,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485334.5865922851</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R63" t="n">
-        <v>6995893.120704162</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111646113</v>
+        <v>111529093</v>
       </c>
       <c r="B45" t="n">
-        <v>87995</v>
+        <v>82949</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,39 +5744,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1594</v>
+        <v>5589</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485314.111892351</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R45" t="n">
-        <v>6995879.171382442</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111645939</v>
+        <v>111646113</v>
       </c>
       <c r="B46" t="n">
-        <v>88956</v>
+        <v>87995</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,21 +5861,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5747</v>
+        <v>1594</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485250.2046207946</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R46" t="n">
-        <v>6995790.225604231</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5958,10 +5958,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111529093</v>
+        <v>111645939</v>
       </c>
       <c r="B47" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,39 +5970,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485442.3376153786</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R47" t="n">
-        <v>6995847.791586295</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,12 +6059,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111645786</v>
+        <v>111646292</v>
       </c>
       <c r="B55" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,35 +6878,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485330.9609580904</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R55" t="n">
-        <v>6995793.48329893</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,22 +6963,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111646292</v>
+        <v>111645934</v>
       </c>
       <c r="B56" t="n">
-        <v>88946</v>
+        <v>88915</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,39 +6987,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>256335</v>
+        <v>5734</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485380.6216548251</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R56" t="n">
-        <v>6995741.1661748</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7076,22 +7076,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645934</v>
+        <v>111645786</v>
       </c>
       <c r="B57" t="n">
-        <v>88915</v>
+        <v>88956</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7100,25 +7100,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5734</v>
+        <v>5747</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7129,10 +7129,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485252.940604815</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R57" t="n">
-        <v>6995793.384020397</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111528406</v>
+        <v>111534811</v>
       </c>
       <c r="B38" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,42 +4941,44 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R38" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5024,6 +5026,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5035,17 +5038,17 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111529645</v>
+        <v>111534365</v>
       </c>
       <c r="B39" t="n">
-        <v>88950</v>
+        <v>90658</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5058,21 +5061,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>256756</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5081,17 +5084,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485461.9636501204</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R39" t="n">
-        <v>6995874.881727031</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5158,10 +5161,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111534365</v>
+        <v>111534807</v>
       </c>
       <c r="B40" t="n">
-        <v>90658</v>
+        <v>88946</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5170,25 +5173,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4361</v>
+        <v>256335</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5201,10 +5204,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R40" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534807</v>
+        <v>111528406</v>
       </c>
       <c r="B41" t="n">
-        <v>88946</v>
+        <v>86223</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5286,44 +5289,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>256335</v>
+        <v>4412</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485420.7608456227</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R41" t="n">
-        <v>6995891.373405961</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S41" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5371,7 +5372,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5383,17 +5383,17 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111534811</v>
+        <v>111529645</v>
       </c>
       <c r="B42" t="n">
-        <v>88956</v>
+        <v>88950</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5747</v>
+        <v>256756</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485420.7608456227</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R42" t="n">
-        <v>6995891.373405961</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646249</v>
+        <v>111646116</v>
       </c>
       <c r="B44" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5635,35 +5635,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485406.7222456348</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R44" t="n">
-        <v>6995896.419135591</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111529093</v>
+        <v>111645907</v>
       </c>
       <c r="B45" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,39 +5744,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485442.3376153786</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R45" t="n">
-        <v>6995847.791586295</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111646113</v>
+        <v>111646147</v>
       </c>
       <c r="B46" t="n">
-        <v>87995</v>
+        <v>88955</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,38 +5861,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1594</v>
+        <v>233196</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485314.111892351</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R46" t="n">
-        <v>6995879.171382442</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5946,22 +5946,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111645939</v>
+        <v>111529093</v>
       </c>
       <c r="B47" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,39 +5970,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485250.2046207946</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R47" t="n">
-        <v>6995790.225604231</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,19 +6059,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111646116</v>
+        <v>111645939</v>
       </c>
       <c r="B48" t="n">
         <v>88956</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485315.0190579021</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R48" t="n">
-        <v>6995879.167276053</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646238</v>
+        <v>111645934</v>
       </c>
       <c r="B49" t="n">
-        <v>90684</v>
+        <v>88915</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6200,21 +6200,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4368</v>
+        <v>5734</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485362.3490331852</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R49" t="n">
-        <v>6995913.831639683</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646241</v>
+        <v>111646292</v>
       </c>
       <c r="B50" t="n">
-        <v>90658</v>
+        <v>88946</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6309,39 +6309,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4361</v>
+        <v>256335</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485362.3490331852</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R50" t="n">
-        <v>6995913.831639683</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6398,22 +6398,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646280</v>
+        <v>111646249</v>
       </c>
       <c r="B51" t="n">
-        <v>90669</v>
+        <v>88946</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,21 +6426,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6003297</v>
+        <v>256335</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485392.7844495863</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R51" t="n">
-        <v>6995823.100814831</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111646132</v>
+        <v>111645786</v>
       </c>
       <c r="B52" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,35 +6539,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485283.2292241262</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R52" t="n">
-        <v>6995870.704946019</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111647994</v>
+        <v>111647922</v>
       </c>
       <c r="B53" t="n">
-        <v>82949</v>
+        <v>88950</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6652,21 +6652,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5589</v>
+        <v>256756</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646012</v>
+        <v>111646132</v>
       </c>
       <c r="B54" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6765,35 +6765,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485239.8069642049</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R54" t="n">
-        <v>6995797.973531034</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646292</v>
+        <v>111646113</v>
       </c>
       <c r="B55" t="n">
-        <v>88946</v>
+        <v>87995</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,35 +6878,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>256335</v>
+        <v>1594</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485380.6216548251</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R55" t="n">
-        <v>6995741.1661748</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,22 +6963,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111645934</v>
+        <v>111646012</v>
       </c>
       <c r="B56" t="n">
-        <v>88915</v>
+        <v>88956</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,25 +6987,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5734</v>
+        <v>5747</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485252.940604815</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R56" t="n">
-        <v>6995793.384020397</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7088,10 +7088,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645786</v>
+        <v>111647994</v>
       </c>
       <c r="B57" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7100,25 +7100,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7129,13 +7129,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485330.9609580904</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R57" t="n">
-        <v>6995793.48329893</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111645907</v>
+        <v>111646241</v>
       </c>
       <c r="B58" t="n">
-        <v>88956</v>
+        <v>90658</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7213,25 +7213,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5747</v>
+        <v>4361</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485252.9550174927</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R58" t="n">
-        <v>6995796.554805406</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646147</v>
+        <v>111646280</v>
       </c>
       <c r="B59" t="n">
-        <v>88955</v>
+        <v>90669</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7330,38 +7330,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>233196</v>
+        <v>6003297</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485366.2412225683</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R59" t="n">
-        <v>6995871.688347753</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,22 +7415,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111647922</v>
+        <v>111646238</v>
       </c>
       <c r="B60" t="n">
-        <v>88950</v>
+        <v>90684</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7443,21 +7443,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>256756</v>
+        <v>4368</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7468,13 +7468,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485369.3672842737</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R60" t="n">
-        <v>6995860.803003247</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S60" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646177</v>
+        <v>111646080</v>
       </c>
       <c r="B62" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485334.5865922851</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R62" t="n">
-        <v>6995893.120704162</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,10 +7766,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646080</v>
+        <v>111646177</v>
       </c>
       <c r="B63" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7778,25 +7778,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485281.704077267</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R63" t="n">
-        <v>6995834.474218315</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY63"/>
+  <dimension ref="A1:AY68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7877,6 +7877,566 @@
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111998587</v>
+      </c>
+      <c r="B64" t="n">
+        <v>85192</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3595</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Siljansspindling</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Cortinarius dalecarlicus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Bye, Jmt</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>485438.9101868912</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6995892.650789962</v>
+      </c>
+      <c r="S64" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Johan Råghall, Maria Danvind, Lars-Olof Grund, Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>111998584</v>
+      </c>
+      <c r="B65" t="n">
+        <v>90655</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>150</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Grangråticka</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Boletopsis leucomelaena</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Bye, Jmt</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>485432.9546544506</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6995879.54152041</v>
+      </c>
+      <c r="S65" t="n">
+        <v>25</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Johan Råghall, Maria Danvind, Lars-Olof Grund, Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>111998588</v>
+      </c>
+      <c r="B66" t="n">
+        <v>88955</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>233196</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fjällfotad fingersvamp</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Ramaria rufescens</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Corner</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Bye, Jmt</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>485478.8050299661</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6995887.942324123</v>
+      </c>
+      <c r="S66" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>16:31</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Johan Råghall, Maria Danvind, Lars-Olof Grund, Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>111998589</v>
+      </c>
+      <c r="B67" t="n">
+        <v>88950</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>256756</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Blek fingersvamp</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ramaria pallida</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Ricken</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Bye, Jmt</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>485478.7705635355</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6995880.242057818</v>
+      </c>
+      <c r="S67" t="n">
+        <v>25</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Johan Råghall, Maria Danvind, Lars-Olof Grund, Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111998585</v>
+      </c>
+      <c r="B68" t="n">
+        <v>90669</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6003297</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Spricktaggsvamp</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hydnellum glaucopus</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Bye, Jmt</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>485448.7995749199</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6995872.675907309</v>
+      </c>
+      <c r="S68" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>16:48</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Johan Råghall, Maria Danvind, Lars-Olof Grund, Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY68"/>
+  <dimension ref="A1:AY69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111534811</v>
+        <v>111528406</v>
       </c>
       <c r="B38" t="n">
-        <v>88956</v>
+        <v>86223</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,44 +4941,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485420.7608456227</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R38" t="n">
-        <v>6995891.373405961</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5026,7 +5024,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5038,17 +5035,17 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111534365</v>
+        <v>111534807</v>
       </c>
       <c r="B39" t="n">
-        <v>90658</v>
+        <v>88946</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5057,25 +5054,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>256335</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5088,10 +5085,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R39" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5161,10 +5158,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111534807</v>
+        <v>111534365</v>
       </c>
       <c r="B40" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5173,25 +5170,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5204,10 +5201,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485420.7608456227</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R40" t="n">
-        <v>6995891.373405961</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5277,10 +5274,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111528406</v>
+        <v>111534811</v>
       </c>
       <c r="B41" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5289,42 +5286,44 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R41" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5372,6 +5371,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111645892</v>
+        <v>111646238</v>
       </c>
       <c r="B43" t="n">
-        <v>88915</v>
+        <v>90684</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5522,21 +5522,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5734</v>
+        <v>4368</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485253.8704414698</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R43" t="n">
-        <v>6995798.362557702</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646116</v>
+        <v>111646113</v>
       </c>
       <c r="B44" t="n">
-        <v>88956</v>
+        <v>87995</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5635,21 +5635,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5747</v>
+        <v>1594</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485315.0190579021</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R44" t="n">
-        <v>6995879.167276053</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111645907</v>
+        <v>111647994</v>
       </c>
       <c r="B45" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5773,13 +5773,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485252.9550174927</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R45" t="n">
-        <v>6995796.554805406</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5845,10 +5845,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111646147</v>
+        <v>111529093</v>
       </c>
       <c r="B46" t="n">
-        <v>88955</v>
+        <v>82949</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5857,25 +5857,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>233196</v>
+        <v>5589</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485366.2412225683</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R46" t="n">
-        <v>6995871.688347753</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5916,22 +5916,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5946,22 +5946,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111529093</v>
+        <v>111646280</v>
       </c>
       <c r="B47" t="n">
-        <v>82949</v>
+        <v>90669</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,39 +5970,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5589</v>
+        <v>6003297</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485442.3376153786</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R47" t="n">
-        <v>6995847.791586295</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,19 +6059,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111645939</v>
+        <v>111646116</v>
       </c>
       <c r="B48" t="n">
         <v>88956</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485250.2046207946</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R48" t="n">
-        <v>6995790.225604231</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111645934</v>
+        <v>111647922</v>
       </c>
       <c r="B49" t="n">
-        <v>88915</v>
+        <v>88950</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6200,21 +6200,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5734</v>
+        <v>256756</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485252.940604815</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R49" t="n">
-        <v>6995793.384020397</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646292</v>
+        <v>111646012</v>
       </c>
       <c r="B50" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,35 +6313,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485380.6216548251</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R50" t="n">
-        <v>6995741.1661748</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6398,22 +6398,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646249</v>
+        <v>111645907</v>
       </c>
       <c r="B51" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,35 +6426,35 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485406.7222456348</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R51" t="n">
-        <v>6995896.419135591</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,10 +6523,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111645786</v>
+        <v>111646249</v>
       </c>
       <c r="B52" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,35 +6539,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485330.9609580904</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R52" t="n">
-        <v>6995793.48329893</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111647922</v>
+        <v>111645892</v>
       </c>
       <c r="B53" t="n">
-        <v>88950</v>
+        <v>88915</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6652,21 +6652,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>256756</v>
+        <v>5734</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6677,13 +6677,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485369.3672842737</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R53" t="n">
-        <v>6995860.803003247</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S53" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646132</v>
+        <v>111646241</v>
       </c>
       <c r="B54" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6761,39 +6761,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485283.2292241262</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R54" t="n">
-        <v>6995870.704946019</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646113</v>
+        <v>111646292</v>
       </c>
       <c r="B55" t="n">
-        <v>87995</v>
+        <v>88946</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,35 +6878,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1594</v>
+        <v>256335</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485314.111892351</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R55" t="n">
-        <v>6995879.171382442</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,19 +6963,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111646012</v>
+        <v>111645786</v>
       </c>
       <c r="B56" t="n">
         <v>88956</v>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485239.8069642049</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R56" t="n">
-        <v>6995797.973531034</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7088,10 +7088,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111647994</v>
+        <v>111645934</v>
       </c>
       <c r="B57" t="n">
-        <v>82949</v>
+        <v>88915</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7104,21 +7104,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5589</v>
+        <v>5734</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7129,13 +7129,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485369.3672842737</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R57" t="n">
-        <v>6995860.803003247</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111646241</v>
+        <v>111645939</v>
       </c>
       <c r="B58" t="n">
-        <v>90658</v>
+        <v>88956</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7213,25 +7213,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4361</v>
+        <v>5747</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485362.3490331852</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R58" t="n">
-        <v>6995913.831639683</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646280</v>
+        <v>111646147</v>
       </c>
       <c r="B59" t="n">
-        <v>90669</v>
+        <v>88955</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7330,38 +7330,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6003297</v>
+        <v>233196</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485392.7844495863</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R59" t="n">
-        <v>6995823.100814831</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,22 +7415,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646238</v>
+        <v>111646132</v>
       </c>
       <c r="B60" t="n">
-        <v>90684</v>
+        <v>88946</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7439,39 +7439,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4368</v>
+        <v>256335</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485362.3490331852</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R60" t="n">
-        <v>6995913.831639683</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7540,7 +7540,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646029</v>
+        <v>111646080</v>
       </c>
       <c r="B61" t="n">
         <v>88899</v>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485240.8007001225</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R61" t="n">
-        <v>6995816.994040847</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646080</v>
+        <v>111646177</v>
       </c>
       <c r="B62" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485281.704077267</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R62" t="n">
-        <v>6995834.474218315</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,10 +7766,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646177</v>
+        <v>111646029</v>
       </c>
       <c r="B63" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7778,25 +7778,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485334.5865922851</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R63" t="n">
-        <v>6995893.120704162</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7991,10 +7991,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998584</v>
+        <v>111998588</v>
       </c>
       <c r="B65" t="n">
-        <v>90655</v>
+        <v>88955</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8007,21 +8007,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>150</v>
+        <v>233196</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485432.9546544506</v>
+        <v>485478.8050299661</v>
       </c>
       <c r="R65" t="n">
-        <v>6995879.54152041</v>
+        <v>6995887.942324123</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8103,10 +8103,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111998588</v>
+        <v>111998585</v>
       </c>
       <c r="B66" t="n">
-        <v>88955</v>
+        <v>90669</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8119,21 +8119,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>233196</v>
+        <v>6003297</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>485478.8050299661</v>
+        <v>485448.7995749199</v>
       </c>
       <c r="R66" t="n">
-        <v>6995887.942324123</v>
+        <v>6995872.675907309</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8327,10 +8327,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998585</v>
+        <v>111998584</v>
       </c>
       <c r="B68" t="n">
-        <v>90669</v>
+        <v>90655</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8343,21 +8343,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6003297</v>
+        <v>150</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485448.7995749199</v>
+        <v>485432.9546544506</v>
       </c>
       <c r="R68" t="n">
-        <v>6995872.675907309</v>
+        <v>6995879.54152041</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8436,6 +8436,127 @@
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112028789</v>
+      </c>
+      <c r="B69" t="n">
+        <v>84820</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>275</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kejsarskivling</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Catathelasma imperiale</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Singer</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Bye (Bye), Jmt</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>485474.1813114028</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6995767.019017727</v>
+      </c>
+      <c r="S69" t="n">
+        <v>25</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Skivorna har tuggats bort men baserat på hur undersidan ser ut lutar jag mest mot nedlöpande skivor.</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -5732,7 +5732,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111647994</v>
+        <v>111529093</v>
       </c>
       <c r="B45" t="n">
         <v>82949</v>
@@ -5769,17 +5769,17 @@
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485369.3672842737</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R45" t="n">
-        <v>6995860.803003247</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S45" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,19 +5833,19 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111529093</v>
+        <v>111647994</v>
       </c>
       <c r="B46" t="n">
         <v>82949</v>
@@ -5882,17 +5882,17 @@
       <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485442.3376153786</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R46" t="n">
-        <v>6995847.791586295</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5916,22 +5916,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5946,12 +5946,12 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111528406</v>
+        <v>111534811</v>
       </c>
       <c r="B38" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,42 +4941,44 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R38" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5024,6 +5026,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5035,17 +5038,17 @@
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111534807</v>
+        <v>111528406</v>
       </c>
       <c r="B39" t="n">
-        <v>88946</v>
+        <v>86223</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5054,44 +5057,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>256335</v>
+        <v>4412</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485420.7608456227</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R39" t="n">
-        <v>6995891.373405961</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5139,7 +5140,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5151,17 +5151,17 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111534365</v>
+        <v>111534807</v>
       </c>
       <c r="B40" t="n">
-        <v>90658</v>
+        <v>88946</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5170,25 +5170,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4361</v>
+        <v>256335</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5201,10 +5201,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485441.4162125615</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R40" t="n">
-        <v>6995844.62492222</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534811</v>
+        <v>111534365</v>
       </c>
       <c r="B41" t="n">
-        <v>88956</v>
+        <v>90658</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5286,25 +5286,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5747</v>
+        <v>4361</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5317,10 +5317,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485420.7608456227</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R41" t="n">
-        <v>6995891.373405961</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111646238</v>
+        <v>111646280</v>
       </c>
       <c r="B43" t="n">
-        <v>90684</v>
+        <v>90669</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5518,39 +5518,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4368</v>
+        <v>6003297</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485362.3490331852</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R43" t="n">
-        <v>6995913.831639683</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646113</v>
+        <v>111645939</v>
       </c>
       <c r="B44" t="n">
-        <v>87995</v>
+        <v>88956</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5635,21 +5635,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1594</v>
+        <v>5747</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485314.111892351</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R44" t="n">
-        <v>6995879.171382442</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111529093</v>
+        <v>111647922</v>
       </c>
       <c r="B45" t="n">
-        <v>82949</v>
+        <v>88950</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5748,38 +5748,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5589</v>
+        <v>256756</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485442.3376153786</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R45" t="n">
-        <v>6995847.791586295</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5803,22 +5803,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5833,22 +5833,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111647994</v>
+        <v>111646241</v>
       </c>
       <c r="B46" t="n">
-        <v>82949</v>
+        <v>90658</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,21 +5861,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5589</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485369.3672842737</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R46" t="n">
-        <v>6995860.803003247</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S46" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5958,10 +5958,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111646280</v>
+        <v>111647994</v>
       </c>
       <c r="B47" t="n">
-        <v>90669</v>
+        <v>82949</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5970,42 +5970,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6003297</v>
+        <v>5589</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485392.7844495863</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R47" t="n">
-        <v>6995823.100814831</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6071,10 +6071,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111646116</v>
+        <v>111646292</v>
       </c>
       <c r="B48" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6087,35 +6087,35 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485315.0190579021</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R48" t="n">
-        <v>6995879.167276053</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6172,22 +6172,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111647922</v>
+        <v>111646113</v>
       </c>
       <c r="B49" t="n">
-        <v>88950</v>
+        <v>87995</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6196,25 +6196,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>256756</v>
+        <v>1594</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485369.3672842737</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R49" t="n">
-        <v>6995860.803003247</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S49" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646012</v>
+        <v>111646249</v>
       </c>
       <c r="B50" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,35 +6313,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485239.8069642049</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R50" t="n">
-        <v>6995797.973531034</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6410,7 +6410,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111645907</v>
+        <v>111646116</v>
       </c>
       <c r="B51" t="n">
         <v>88956</v>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485252.9550174927</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R51" t="n">
-        <v>6995796.554805406</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6523,10 +6523,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111646249</v>
+        <v>111646012</v>
       </c>
       <c r="B52" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,35 +6539,35 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485406.7222456348</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R52" t="n">
-        <v>6995896.419135591</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646241</v>
+        <v>111529093</v>
       </c>
       <c r="B54" t="n">
-        <v>90658</v>
+        <v>82949</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6765,35 +6765,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4361</v>
+        <v>5589</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485362.3490331852</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R54" t="n">
-        <v>6995913.831639683</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6820,22 +6820,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6850,22 +6850,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646292</v>
+        <v>111646147</v>
       </c>
       <c r="B55" t="n">
-        <v>88946</v>
+        <v>88955</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,38 +6878,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>256335</v>
+        <v>233196</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485380.6216548251</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R55" t="n">
-        <v>6995741.1661748</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,19 +6963,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111645786</v>
+        <v>111645907</v>
       </c>
       <c r="B56" t="n">
         <v>88956</v>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485330.9609580904</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R56" t="n">
-        <v>6995793.48329893</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7201,7 +7201,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111645939</v>
+        <v>111645786</v>
       </c>
       <c r="B58" t="n">
         <v>88956</v>
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485250.2046207946</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R58" t="n">
-        <v>6995790.225604231</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646147</v>
+        <v>111646238</v>
       </c>
       <c r="B59" t="n">
-        <v>88955</v>
+        <v>90684</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7326,42 +7326,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>233196</v>
+        <v>4368</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485366.2412225683</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R59" t="n">
-        <v>6995871.688347753</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,12 +7415,12 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646080</v>
+        <v>111646177</v>
       </c>
       <c r="B61" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7552,25 +7552,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485281.704077267</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R61" t="n">
-        <v>6995834.474218315</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646177</v>
+        <v>111646080</v>
       </c>
       <c r="B62" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485334.5865922851</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R62" t="n">
-        <v>6995893.120704162</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7879,10 +7879,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998587</v>
+        <v>111998585</v>
       </c>
       <c r="B64" t="n">
-        <v>85192</v>
+        <v>90669</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7895,21 +7895,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3595</v>
+        <v>6003297</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485438.9101868912</v>
+        <v>485448.7995749199</v>
       </c>
       <c r="R64" t="n">
-        <v>6995892.650789962</v>
+        <v>6995872.675907309</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7991,10 +7991,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998588</v>
+        <v>111998587</v>
       </c>
       <c r="B65" t="n">
-        <v>88955</v>
+        <v>85192</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8007,21 +8007,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>233196</v>
+        <v>3595</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485478.8050299661</v>
+        <v>485438.9101868912</v>
       </c>
       <c r="R65" t="n">
-        <v>6995887.942324123</v>
+        <v>6995892.650789962</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8103,10 +8103,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111998585</v>
+        <v>111998584</v>
       </c>
       <c r="B66" t="n">
-        <v>90669</v>
+        <v>90655</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8119,21 +8119,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6003297</v>
+        <v>150</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>485448.7995749199</v>
+        <v>485432.9546544506</v>
       </c>
       <c r="R66" t="n">
-        <v>6995872.675907309</v>
+        <v>6995879.54152041</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8327,10 +8327,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998584</v>
+        <v>111998588</v>
       </c>
       <c r="B68" t="n">
-        <v>90655</v>
+        <v>88955</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8343,21 +8343,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>150</v>
+        <v>233196</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485432.9546544506</v>
+        <v>485478.8050299661</v>
       </c>
       <c r="R68" t="n">
-        <v>6995879.54152041</v>
+        <v>6995887.942324123</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD68" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -4929,10 +4929,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111534811</v>
+        <v>111529645</v>
       </c>
       <c r="B38" t="n">
-        <v>88956</v>
+        <v>88950</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4941,25 +4941,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5747</v>
+        <v>256756</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4968,17 +4968,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>485420.7608456227</v>
+        <v>485461.9636501204</v>
       </c>
       <c r="R38" t="n">
-        <v>6995891.373405961</v>
+        <v>6995874.881727031</v>
       </c>
       <c r="S38" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111528406</v>
+        <v>111534811</v>
       </c>
       <c r="B39" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5057,42 +5057,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>485437.7021191928</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R39" t="n">
-        <v>6995825.616733935</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5140,6 +5142,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5151,17 +5154,17 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111534807</v>
+        <v>111534365</v>
       </c>
       <c r="B40" t="n">
-        <v>88946</v>
+        <v>90658</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5170,25 +5173,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>256335</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5201,10 +5204,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>485420.7608456227</v>
+        <v>485441.4162125615</v>
       </c>
       <c r="R40" t="n">
-        <v>6995891.373405961</v>
+        <v>6995844.62492222</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111534365</v>
+        <v>111528406</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>86223</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5290,40 +5293,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bye, Höktjärnen, Marieby, Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>485441.4162125615</v>
+        <v>485437.7021191928</v>
       </c>
       <c r="R41" t="n">
-        <v>6995844.62492222</v>
+        <v>6995825.616733935</v>
       </c>
       <c r="S41" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5371,7 +5372,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5383,17 +5383,17 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström, Thomas Stålhandske</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111529645</v>
+        <v>111534807</v>
       </c>
       <c r="B42" t="n">
-        <v>88950</v>
+        <v>88946</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5402,25 +5402,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>256756</v>
+        <v>256335</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Bye, Höktjärnen, Marieby, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>485461.9636501204</v>
+        <v>485420.7608456227</v>
       </c>
       <c r="R42" t="n">
-        <v>6995874.881727031</v>
+        <v>6995891.373405961</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111646280</v>
+        <v>111645786</v>
       </c>
       <c r="B43" t="n">
-        <v>90669</v>
+        <v>88956</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5522,35 +5522,35 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6003297</v>
+        <v>5747</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485392.7844495863</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R43" t="n">
-        <v>6995823.100814831</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5619,10 +5619,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111645939</v>
+        <v>111646292</v>
       </c>
       <c r="B44" t="n">
-        <v>88956</v>
+        <v>88946</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5635,35 +5635,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5747</v>
+        <v>256335</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485250.2046207946</v>
+        <v>485380.6216548251</v>
       </c>
       <c r="R44" t="n">
-        <v>6995790.225604231</v>
+        <v>6995741.1661748</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5720,12 +5720,12 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111646292</v>
+        <v>111646132</v>
       </c>
       <c r="B48" t="n">
         <v>88946</v>
@@ -6108,14 +6108,14 @@
       <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485380.6216548251</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R48" t="n">
-        <v>6995741.1661748</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6172,22 +6172,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646113</v>
+        <v>111646012</v>
       </c>
       <c r="B49" t="n">
-        <v>87995</v>
+        <v>88956</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6200,21 +6200,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1594</v>
+        <v>5747</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485314.111892351</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R49" t="n">
-        <v>6995879.171382442</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646249</v>
+        <v>111646280</v>
       </c>
       <c r="B50" t="n">
-        <v>88946</v>
+        <v>90669</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,21 +6313,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>256335</v>
+        <v>6003297</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485406.7222456348</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R50" t="n">
-        <v>6995896.419135591</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646116</v>
+        <v>111529093</v>
       </c>
       <c r="B51" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6422,39 +6422,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485315.0190579021</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R51" t="n">
-        <v>6995879.167276053</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6481,22 +6481,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6511,22 +6511,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111646012</v>
+        <v>111645892</v>
       </c>
       <c r="B52" t="n">
-        <v>88956</v>
+        <v>88915</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6535,25 +6535,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6564,10 +6564,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485239.8069642049</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R52" t="n">
-        <v>6995797.973531034</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111645892</v>
+        <v>111646249</v>
       </c>
       <c r="B53" t="n">
-        <v>88915</v>
+        <v>88946</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6648,39 +6648,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5734</v>
+        <v>256335</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485253.8704414698</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R53" t="n">
-        <v>6995798.362557702</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111529093</v>
+        <v>111645939</v>
       </c>
       <c r="B54" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6761,39 +6761,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485442.3376153786</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R54" t="n">
-        <v>6995847.791586295</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6820,22 +6820,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6850,22 +6850,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646147</v>
+        <v>111646116</v>
       </c>
       <c r="B55" t="n">
-        <v>88955</v>
+        <v>88956</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,38 +6878,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>233196</v>
+        <v>5747</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485366.2412225683</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R55" t="n">
-        <v>6995871.688347753</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,22 +6963,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111645907</v>
+        <v>111646113</v>
       </c>
       <c r="B56" t="n">
-        <v>88956</v>
+        <v>87995</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6991,21 +6991,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5747</v>
+        <v>1594</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485252.9550174927</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R56" t="n">
-        <v>6995796.554805406</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111645786</v>
+        <v>111646147</v>
       </c>
       <c r="B58" t="n">
-        <v>88956</v>
+        <v>88955</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7217,38 +7217,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5747</v>
+        <v>233196</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485330.9609580904</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R58" t="n">
-        <v>6995793.48329893</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7302,22 +7302,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111646238</v>
+        <v>111645907</v>
       </c>
       <c r="B59" t="n">
-        <v>90684</v>
+        <v>88956</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7326,25 +7326,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4368</v>
+        <v>5747</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7355,10 +7355,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485362.3490331852</v>
+        <v>485252.9550174927</v>
       </c>
       <c r="R59" t="n">
-        <v>6995913.831639683</v>
+        <v>6995796.554805406</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7427,10 +7427,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646132</v>
+        <v>111646238</v>
       </c>
       <c r="B60" t="n">
-        <v>88946</v>
+        <v>90684</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7439,39 +7439,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>256335</v>
+        <v>4368</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485283.2292241262</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R60" t="n">
-        <v>6995870.704946019</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7540,10 +7540,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646177</v>
+        <v>111646029</v>
       </c>
       <c r="B61" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7552,25 +7552,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485334.5865922851</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R61" t="n">
-        <v>6995893.120704162</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646080</v>
+        <v>111646177</v>
       </c>
       <c r="B62" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485281.704077267</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R62" t="n">
-        <v>6995834.474218315</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7766,7 +7766,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111646029</v>
+        <v>111646080</v>
       </c>
       <c r="B63" t="n">
         <v>88899</v>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485240.8007001225</v>
+        <v>485281.704077267</v>
       </c>
       <c r="R63" t="n">
-        <v>6995816.994040847</v>
+        <v>6995834.474218315</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7879,10 +7879,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998585</v>
+        <v>111998587</v>
       </c>
       <c r="B64" t="n">
-        <v>90669</v>
+        <v>85192</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7895,21 +7895,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6003297</v>
+        <v>3595</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485448.7995749199</v>
+        <v>485438.9101868912</v>
       </c>
       <c r="R64" t="n">
-        <v>6995872.675907309</v>
+        <v>6995892.650789962</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7991,10 +7991,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998587</v>
+        <v>111998584</v>
       </c>
       <c r="B65" t="n">
-        <v>85192</v>
+        <v>90655</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8007,21 +8007,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3595</v>
+        <v>150</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485438.9101868912</v>
+        <v>485432.9546544506</v>
       </c>
       <c r="R65" t="n">
-        <v>6995892.650789962</v>
+        <v>6995879.54152041</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8103,10 +8103,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111998584</v>
+        <v>111998588</v>
       </c>
       <c r="B66" t="n">
-        <v>90655</v>
+        <v>88955</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8119,21 +8119,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>150</v>
+        <v>233196</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>485432.9546544506</v>
+        <v>485478.8050299661</v>
       </c>
       <c r="R66" t="n">
-        <v>6995879.54152041</v>
+        <v>6995887.942324123</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8215,10 +8215,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111998589</v>
+        <v>111998585</v>
       </c>
       <c r="B67" t="n">
-        <v>88950</v>
+        <v>90669</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8227,25 +8227,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>256756</v>
+        <v>6003297</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8255,10 +8255,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485478.7705635355</v>
+        <v>485448.7995749199</v>
       </c>
       <c r="R67" t="n">
-        <v>6995880.242057818</v>
+        <v>6995872.675907309</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8327,10 +8327,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998588</v>
+        <v>111998589</v>
       </c>
       <c r="B68" t="n">
-        <v>88955</v>
+        <v>88950</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8339,25 +8339,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>233196</v>
+        <v>256756</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485478.8050299661</v>
+        <v>485478.7705635355</v>
       </c>
       <c r="R68" t="n">
-        <v>6995887.942324123</v>
+        <v>6995880.242057818</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD68" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -5506,10 +5506,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111645786</v>
+        <v>111647922</v>
       </c>
       <c r="B43" t="n">
-        <v>88956</v>
+        <v>88950</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5747</v>
+        <v>256756</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485330.9609580904</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R43" t="n">
-        <v>6995793.48329893</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5732,10 +5732,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111647922</v>
+        <v>111645786</v>
       </c>
       <c r="B45" t="n">
-        <v>88950</v>
+        <v>88956</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>256756</v>
+        <v>5747</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5773,13 +5773,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485369.3672842737</v>
+        <v>485330.9609580904</v>
       </c>
       <c r="R45" t="n">
-        <v>6995860.803003247</v>
+        <v>6995793.48329893</v>
       </c>
       <c r="S45" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5845,10 +5845,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111646241</v>
+        <v>111645934</v>
       </c>
       <c r="B46" t="n">
-        <v>90658</v>
+        <v>88915</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,21 +5861,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>5734</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485362.3490331852</v>
+        <v>485252.940604815</v>
       </c>
       <c r="R46" t="n">
-        <v>6995913.831639683</v>
+        <v>6995793.384020397</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5958,7 +5958,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111647994</v>
+        <v>111529093</v>
       </c>
       <c r="B47" t="n">
         <v>82949</v>
@@ -5995,17 +5995,17 @@
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485369.3672842737</v>
+        <v>485442.3376153786</v>
       </c>
       <c r="R47" t="n">
-        <v>6995860.803003247</v>
+        <v>6995847.791586295</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,22 +6059,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111646132</v>
+        <v>111646012</v>
       </c>
       <c r="B48" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6087,35 +6087,35 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485283.2292241262</v>
+        <v>485239.8069642049</v>
       </c>
       <c r="R48" t="n">
-        <v>6995870.704946019</v>
+        <v>6995797.973531034</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646012</v>
+        <v>111646238</v>
       </c>
       <c r="B49" t="n">
-        <v>88956</v>
+        <v>90684</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6196,25 +6196,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5747</v>
+        <v>4368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485239.8069642049</v>
+        <v>485362.3490331852</v>
       </c>
       <c r="R49" t="n">
-        <v>6995797.973531034</v>
+        <v>6995913.831639683</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6297,10 +6297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111646280</v>
+        <v>111645939</v>
       </c>
       <c r="B50" t="n">
-        <v>90669</v>
+        <v>88956</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6313,35 +6313,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6003297</v>
+        <v>5747</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485392.7844495863</v>
+        <v>485250.2046207946</v>
       </c>
       <c r="R50" t="n">
-        <v>6995823.100814831</v>
+        <v>6995790.225604231</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111529093</v>
+        <v>111646147</v>
       </c>
       <c r="B51" t="n">
-        <v>82949</v>
+        <v>88955</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6422,25 +6422,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5589</v>
+        <v>233196</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6451,13 +6451,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485442.3376153786</v>
+        <v>485366.2412225683</v>
       </c>
       <c r="R51" t="n">
-        <v>6995847.791586295</v>
+        <v>6995871.688347753</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6481,22 +6481,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6511,22 +6511,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111645892</v>
+        <v>111646280</v>
       </c>
       <c r="B52" t="n">
-        <v>88915</v>
+        <v>90669</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6535,39 +6535,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5734</v>
+        <v>6003297</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485253.8704414698</v>
+        <v>485392.7844495863</v>
       </c>
       <c r="R52" t="n">
-        <v>6995798.362557702</v>
+        <v>6995823.100814831</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,10 +6636,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111646249</v>
+        <v>111646116</v>
       </c>
       <c r="B53" t="n">
-        <v>88946</v>
+        <v>88956</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6652,35 +6652,35 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>256335</v>
+        <v>5747</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485406.7222456348</v>
+        <v>485315.0190579021</v>
       </c>
       <c r="R53" t="n">
-        <v>6995896.419135591</v>
+        <v>6995879.167276053</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111645939</v>
+        <v>111646113</v>
       </c>
       <c r="B54" t="n">
-        <v>88956</v>
+        <v>87995</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6765,21 +6765,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5747</v>
+        <v>1594</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485250.2046207946</v>
+        <v>485314.111892351</v>
       </c>
       <c r="R54" t="n">
-        <v>6995790.225604231</v>
+        <v>6995879.171382442</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111646116</v>
+        <v>111645892</v>
       </c>
       <c r="B55" t="n">
-        <v>88956</v>
+        <v>88915</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485315.0190579021</v>
+        <v>485253.8704414698</v>
       </c>
       <c r="R55" t="n">
-        <v>6995879.167276053</v>
+        <v>6995798.362557702</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6975,10 +6975,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111646113</v>
+        <v>111647994</v>
       </c>
       <c r="B56" t="n">
-        <v>87995</v>
+        <v>82949</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,25 +6987,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1594</v>
+        <v>5589</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485314.111892351</v>
+        <v>485369.3672842737</v>
       </c>
       <c r="R56" t="n">
-        <v>6995879.171382442</v>
+        <v>6995860.803003247</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7088,10 +7088,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111645934</v>
+        <v>111646132</v>
       </c>
       <c r="B57" t="n">
-        <v>88915</v>
+        <v>88946</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7100,39 +7100,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5734</v>
+        <v>256335</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485252.940604815</v>
+        <v>485283.2292241262</v>
       </c>
       <c r="R57" t="n">
-        <v>6995793.384020397</v>
+        <v>6995870.704946019</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7201,10 +7201,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111646147</v>
+        <v>111646249</v>
       </c>
       <c r="B58" t="n">
-        <v>88955</v>
+        <v>88946</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7217,38 +7217,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>233196</v>
+        <v>256335</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485366.2412225683</v>
+        <v>485406.7222456348</v>
       </c>
       <c r="R58" t="n">
-        <v>6995871.688347753</v>
+        <v>6995896.419135591</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7302,12 +7302,12 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646238</v>
+        <v>111646241</v>
       </c>
       <c r="B60" t="n">
-        <v>90684</v>
+        <v>90658</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7443,21 +7443,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111646029</v>
+        <v>111646177</v>
       </c>
       <c r="B61" t="n">
-        <v>88899</v>
+        <v>90669</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7552,25 +7552,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3286</v>
+        <v>6003297</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7581,10 +7581,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485240.8007001225</v>
+        <v>485334.5865922851</v>
       </c>
       <c r="R61" t="n">
-        <v>6995816.994040847</v>
+        <v>6995893.120704162</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7653,10 +7653,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111646177</v>
+        <v>111646029</v>
       </c>
       <c r="B62" t="n">
-        <v>90669</v>
+        <v>88899</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7665,25 +7665,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6003297</v>
+        <v>3286</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7694,10 +7694,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485334.5865922851</v>
+        <v>485240.8007001225</v>
       </c>
       <c r="R62" t="n">
-        <v>6995893.120704162</v>
+        <v>6995816.994040847</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7879,10 +7879,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998587</v>
+        <v>111998584</v>
       </c>
       <c r="B64" t="n">
-        <v>85192</v>
+        <v>90655</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7895,21 +7895,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3595</v>
+        <v>150</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485438.9101868912</v>
+        <v>485432.9546544506</v>
       </c>
       <c r="R64" t="n">
-        <v>6995892.650789962</v>
+        <v>6995879.54152041</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7991,10 +7991,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998584</v>
+        <v>111998587</v>
       </c>
       <c r="B65" t="n">
-        <v>90655</v>
+        <v>85192</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8007,21 +8007,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>150</v>
+        <v>3595</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485432.9546544506</v>
+        <v>485438.9101868912</v>
       </c>
       <c r="R65" t="n">
-        <v>6995879.54152041</v>
+        <v>6995892.650789962</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8215,10 +8215,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111998585</v>
+        <v>111998589</v>
       </c>
       <c r="B67" t="n">
-        <v>90669</v>
+        <v>88950</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8227,25 +8227,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6003297</v>
+        <v>256756</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8255,10 +8255,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485448.7995749199</v>
+        <v>485478.7705635355</v>
       </c>
       <c r="R67" t="n">
-        <v>6995872.675907309</v>
+        <v>6995880.242057818</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8327,10 +8327,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998589</v>
+        <v>111998585</v>
       </c>
       <c r="B68" t="n">
-        <v>88950</v>
+        <v>90669</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8339,25 +8339,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>256756</v>
+        <v>6003297</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485478.7705635355</v>
+        <v>485448.7995749199</v>
       </c>
       <c r="R68" t="n">
-        <v>6995880.242057818</v>
+        <v>6995872.675907309</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD68" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>485369.3672842737</v>
+        <v>485369</v>
       </c>
       <c r="R43" t="n">
-        <v>6995860.803003247</v>
+        <v>6995861</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111646292</v>
+        <v>111646132</v>
       </c>
       <c r="B44" t="n">
         <v>88946</v>
@@ -5656,14 +5656,14 @@
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bye (Bye), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>485380.6216548251</v>
+        <v>485283</v>
       </c>
       <c r="R44" t="n">
-        <v>6995741.1661748</v>
+        <v>6995871</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5720,22 +5720,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111645786</v>
+        <v>111646241</v>
       </c>
       <c r="B45" t="n">
-        <v>88956</v>
+        <v>90658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5747</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5773,10 +5773,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>485330.9609580904</v>
+        <v>485362</v>
       </c>
       <c r="R45" t="n">
-        <v>6995793.48329893</v>
+        <v>6995914</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5845,7 +5845,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111645934</v>
+        <v>111645892</v>
       </c>
       <c r="B46" t="n">
         <v>88915</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>485252.940604815</v>
+        <v>485254</v>
       </c>
       <c r="R46" t="n">
-        <v>6995793.384020397</v>
+        <v>6995798</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111529093</v>
+        <v>111645934</v>
       </c>
       <c r="B47" t="n">
-        <v>82949</v>
+        <v>88915</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5974,35 +5974,35 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5589</v>
+        <v>5734</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Druvfingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria botrytis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Pers.:Fr.) Bourdot</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>485442.3376153786</v>
+        <v>485253</v>
       </c>
       <c r="R47" t="n">
-        <v>6995847.791586295</v>
+        <v>6995793</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6029,22 +6029,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-17</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6059,22 +6059,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111646012</v>
+        <v>111646280</v>
       </c>
       <c r="B48" t="n">
-        <v>88956</v>
+        <v>90669</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6087,35 +6087,35 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5747</v>
+        <v>6003297</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Källmyren, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>485239.8069642049</v>
+        <v>485393</v>
       </c>
       <c r="R48" t="n">
-        <v>6995797.973531034</v>
+        <v>6995823</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6184,10 +6184,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111646238</v>
+        <v>111645907</v>
       </c>
       <c r="B49" t="n">
-        <v>90684</v>
+        <v>88956</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6196,25 +6196,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4368</v>
+        <v>5747</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>485362.3490331852</v>
+        <v>485253</v>
       </c>
       <c r="R49" t="n">
-        <v>6995913.831639683</v>
+        <v>6995797</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>485250.2046207946</v>
+        <v>485250</v>
       </c>
       <c r="R50" t="n">
-        <v>6995790.225604231</v>
+        <v>6995790</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111646147</v>
+        <v>111646116</v>
       </c>
       <c r="B51" t="n">
-        <v>88955</v>
+        <v>88956</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,38 +6426,38 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>233196</v>
+        <v>5747</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>485366.2412225683</v>
+        <v>485315</v>
       </c>
       <c r="R51" t="n">
-        <v>6995871.688347753</v>
+        <v>6995879</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6511,22 +6511,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111646280</v>
+        <v>111647994</v>
       </c>
       <c r="B52" t="n">
-        <v>90669</v>
+        <v>82949</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6535,42 +6535,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6003297</v>
+        <v>5589</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>485392.7844495863</v>
+        <v>485369</v>
       </c>
       <c r="R52" t="n">
-        <v>6995823.100814831</v>
+        <v>6995861</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6636,7 +6636,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111646116</v>
+        <v>111646012</v>
       </c>
       <c r="B53" t="n">
         <v>88956</v>
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>485315.0190579021</v>
+        <v>485240</v>
       </c>
       <c r="R53" t="n">
-        <v>6995879.167276053</v>
+        <v>6995798</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6749,10 +6749,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111646113</v>
+        <v>111645786</v>
       </c>
       <c r="B54" t="n">
-        <v>87995</v>
+        <v>88956</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6765,21 +6765,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1594</v>
+        <v>5747</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Svartfjällig musseron</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tricholoma atrosquamosum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>485314.111892351</v>
+        <v>485331</v>
       </c>
       <c r="R54" t="n">
-        <v>6995879.171382442</v>
+        <v>6995793</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6862,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111645892</v>
+        <v>111529093</v>
       </c>
       <c r="B55" t="n">
-        <v>88915</v>
+        <v>82949</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6878,35 +6878,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5734</v>
+        <v>5589</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Druvfingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ramaria botrytis</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bourdot</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>485253.8704414698</v>
+        <v>485442</v>
       </c>
       <c r="R55" t="n">
-        <v>6995798.362557702</v>
+        <v>6995848</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6933,22 +6933,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>13:30</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>13:30</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6963,22 +6953,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim, Thomas Stålhandske, Hugo Ström</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111647994</v>
+        <v>111646292</v>
       </c>
       <c r="B56" t="n">
-        <v>82949</v>
+        <v>88946</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,42 +6977,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5589</v>
+        <v>256335</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye (Bye), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>485369.3672842737</v>
+        <v>485381</v>
       </c>
       <c r="R56" t="n">
-        <v>6995860.803003247</v>
+        <v>6995741</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7049,19 +7039,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>15:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7076,19 +7056,19 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111646132</v>
+        <v>111646249</v>
       </c>
       <c r="B57" t="n">
         <v>88946</v>
@@ -7129,10 +7109,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>485283.2292241262</v>
+        <v>485407</v>
       </c>
       <c r="R57" t="n">
-        <v>6995870.704946019</v>
+        <v>6995896</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7164,7 +7144,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7174,7 +7154,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7201,10 +7181,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111646249</v>
+        <v>111646113</v>
       </c>
       <c r="B58" t="n">
-        <v>88946</v>
+        <v>87995</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7217,35 +7197,35 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>256335</v>
+        <v>1594</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Svartfjällig musseron</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Tricholoma atrosquamosum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sacc.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Källmyren, Jmt</t>
+          <t>Källmyren (Källmyren), Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>485406.7222456348</v>
+        <v>485314</v>
       </c>
       <c r="R58" t="n">
-        <v>6995896.419135591</v>
+        <v>6995879</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7277,7 +7257,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7287,7 +7267,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:56</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7314,10 +7294,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111645907</v>
+        <v>111646147</v>
       </c>
       <c r="B59" t="n">
-        <v>88956</v>
+        <v>88955</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7330,38 +7310,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5747</v>
+        <v>233196</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Källmyren (Källmyren), Jmt</t>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>485252.9550174927</v>
+        <v>485366</v>
       </c>
       <c r="R59" t="n">
-        <v>6995796.554805406</v>
+        <v>6995872</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7390,7 +7370,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7400,7 +7380,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7415,22 +7395,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111646241</v>
+        <v>111646238</v>
       </c>
       <c r="B60" t="n">
-        <v>90658</v>
+        <v>90684</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7443,21 +7423,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7468,10 +7448,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>485362.3490331852</v>
+        <v>485362</v>
       </c>
       <c r="R60" t="n">
-        <v>6995913.831639683</v>
+        <v>6995914</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7581,10 +7561,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>485334.5865922851</v>
+        <v>485335</v>
       </c>
       <c r="R61" t="n">
-        <v>6995893.120704162</v>
+        <v>6995893</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7694,10 +7674,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>485240.8007001225</v>
+        <v>485241</v>
       </c>
       <c r="R62" t="n">
-        <v>6995816.994040847</v>
+        <v>6995817</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7807,10 +7787,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>485281.704077267</v>
+        <v>485282</v>
       </c>
       <c r="R63" t="n">
-        <v>6995834.474218315</v>
+        <v>6995834</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7879,10 +7859,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998584</v>
+        <v>111998588</v>
       </c>
       <c r="B64" t="n">
-        <v>90655</v>
+        <v>88955</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7895,21 +7875,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>150</v>
+        <v>233196</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7919,10 +7899,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485432.9546544506</v>
+        <v>485479</v>
       </c>
       <c r="R64" t="n">
-        <v>6995879.54152041</v>
+        <v>6995888</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7954,7 +7934,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7964,7 +7944,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8031,10 +8011,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485438.9101868912</v>
+        <v>485439</v>
       </c>
       <c r="R65" t="n">
-        <v>6995892.650789962</v>
+        <v>6995893</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8103,10 +8083,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111998588</v>
+        <v>111998585</v>
       </c>
       <c r="B66" t="n">
-        <v>88955</v>
+        <v>90669</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8119,21 +8099,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>233196</v>
+        <v>6003297</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8143,10 +8123,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>485478.8050299661</v>
+        <v>485449</v>
       </c>
       <c r="R66" t="n">
-        <v>6995887.942324123</v>
+        <v>6995873</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8178,7 +8158,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8188,7 +8168,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8255,10 +8235,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485478.7705635355</v>
+        <v>485479</v>
       </c>
       <c r="R67" t="n">
-        <v>6995880.242057818</v>
+        <v>6995880</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8327,10 +8307,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998585</v>
+        <v>111998584</v>
       </c>
       <c r="B68" t="n">
-        <v>90669</v>
+        <v>90655</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8343,21 +8323,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6003297</v>
+        <v>150</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8367,10 +8347,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485448.7995749199</v>
+        <v>485433</v>
       </c>
       <c r="R68" t="n">
-        <v>6995872.675907309</v>
+        <v>6995880</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8402,7 +8382,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8412,7 +8392,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8482,10 +8462,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>485474.1813114028</v>
+        <v>485474</v>
       </c>
       <c r="R69" t="n">
-        <v>6995767.019017727</v>
+        <v>6995767</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8515,19 +8495,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -7859,10 +7859,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998588</v>
+        <v>111998587</v>
       </c>
       <c r="B64" t="n">
-        <v>88955</v>
+        <v>85313</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7875,21 +7875,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>233196</v>
+        <v>3595</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485479</v>
+        <v>485439</v>
       </c>
       <c r="R64" t="n">
-        <v>6995888</v>
+        <v>6995893</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7971,10 +7971,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998587</v>
+        <v>111998588</v>
       </c>
       <c r="B65" t="n">
-        <v>85192</v>
+        <v>89089</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7987,21 +7987,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3595</v>
+        <v>233196</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485439</v>
+        <v>485479</v>
       </c>
       <c r="R65" t="n">
-        <v>6995893</v>
+        <v>6995888</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8086,7 +8086,7 @@
         <v>111998585</v>
       </c>
       <c r="B66" t="n">
-        <v>90669</v>
+        <v>90803</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8195,10 +8195,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111998589</v>
+        <v>111998584</v>
       </c>
       <c r="B67" t="n">
-        <v>88950</v>
+        <v>90789</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>256756</v>
+        <v>150</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485479</v>
+        <v>485433</v>
       </c>
       <c r="R67" t="n">
         <v>6995880</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8307,10 +8307,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998584</v>
+        <v>111998589</v>
       </c>
       <c r="B68" t="n">
-        <v>90655</v>
+        <v>89084</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8319,25 +8319,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>150</v>
+        <v>256756</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485433</v>
+        <v>485479</v>
       </c>
       <c r="R68" t="n">
         <v>6995880</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8422,7 +8422,7 @@
         <v>112028789</v>
       </c>
       <c r="B69" t="n">
-        <v>84820</v>
+        <v>84941</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8498,11 +8498,6 @@
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Skivorna har tuggats bort men baserat på hur undersidan ser ut lutar jag mest mot nedlöpande skivor.</t>
         </is>
       </c>
       <c r="AD69" t="b">

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -7859,10 +7859,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998587</v>
+        <v>111998588</v>
       </c>
       <c r="B64" t="n">
-        <v>85313</v>
+        <v>89103</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7875,21 +7875,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3595</v>
+        <v>233196</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485439</v>
+        <v>485479</v>
       </c>
       <c r="R64" t="n">
-        <v>6995893</v>
+        <v>6995888</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7971,10 +7971,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998588</v>
+        <v>111998587</v>
       </c>
       <c r="B65" t="n">
-        <v>89089</v>
+        <v>85327</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7987,21 +7987,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>233196</v>
+        <v>3595</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485479</v>
+        <v>485439</v>
       </c>
       <c r="R65" t="n">
-        <v>6995888</v>
+        <v>6995893</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8086,7 +8086,7 @@
         <v>111998585</v>
       </c>
       <c r="B66" t="n">
-        <v>90803</v>
+        <v>90817</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8195,10 +8195,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111998584</v>
+        <v>111998589</v>
       </c>
       <c r="B67" t="n">
-        <v>90789</v>
+        <v>89098</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>150</v>
+        <v>256756</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485433</v>
+        <v>485479</v>
       </c>
       <c r="R67" t="n">
         <v>6995880</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8307,10 +8307,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998589</v>
+        <v>111998584</v>
       </c>
       <c r="B68" t="n">
-        <v>89084</v>
+        <v>90803</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8319,25 +8319,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>256756</v>
+        <v>150</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485479</v>
+        <v>485433</v>
       </c>
       <c r="R68" t="n">
         <v>6995880</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8422,7 +8422,7 @@
         <v>112028789</v>
       </c>
       <c r="B69" t="n">
-        <v>84941</v>
+        <v>84955</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>

--- a/artfynd/A 60950-2019.xlsx
+++ b/artfynd/A 60950-2019.xlsx
@@ -7859,10 +7859,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111998588</v>
+        <v>111998584</v>
       </c>
       <c r="B64" t="n">
-        <v>89103</v>
+        <v>90803</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7875,21 +7875,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>233196</v>
+        <v>150</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fjällfotad fingersvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ramaria rufescens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Schaeff.) Corner</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>485479</v>
+        <v>485433</v>
       </c>
       <c r="R64" t="n">
-        <v>6995888</v>
+        <v>6995880</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7971,10 +7971,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111998587</v>
+        <v>111998588</v>
       </c>
       <c r="B65" t="n">
-        <v>85327</v>
+        <v>89103</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7987,21 +7987,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3595</v>
+        <v>233196</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Siljansspindling</t>
+          <t>Fjällfotad fingersvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cortinarius dalecarlicus</t>
+          <t>Ramaria rufescens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Schaeff.) Corner</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>485439</v>
+        <v>485479</v>
       </c>
       <c r="R65" t="n">
-        <v>6995893</v>
+        <v>6995888</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:38</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8083,10 +8083,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111998585</v>
+        <v>111998587</v>
       </c>
       <c r="B66" t="n">
-        <v>90817</v>
+        <v>85327</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8099,21 +8099,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6003297</v>
+        <v>3595</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Siljansspindling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Cortinarius dalecarlicus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8123,10 +8123,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>485449</v>
+        <v>485439</v>
       </c>
       <c r="R66" t="n">
-        <v>6995873</v>
+        <v>6995893</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8195,10 +8195,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111998589</v>
+        <v>111998585</v>
       </c>
       <c r="B67" t="n">
-        <v>89098</v>
+        <v>90817</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>256756</v>
+        <v>6003297</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blek fingersvamp</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ramaria pallida</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Schaeff.) Ricken</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8235,10 +8235,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>485479</v>
+        <v>485449</v>
       </c>
       <c r="R67" t="n">
-        <v>6995880</v>
+        <v>6995873</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:48</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8307,10 +8307,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111998584</v>
+        <v>111998589</v>
       </c>
       <c r="B68" t="n">
-        <v>90803</v>
+        <v>89098</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8319,25 +8319,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>150</v>
+        <v>256756</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Blek fingersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Ramaria pallida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Ricken</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>485433</v>
+        <v>485479</v>
       </c>
       <c r="R68" t="n">
         <v>6995880</v>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD68" t="b">
